--- a/2_Project/Web_Development_Project_Details.xlsx
+++ b/2_Project/Web_Development_Project_Details.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="417">
   <si>
     <t>College</t>
   </si>
@@ -502,9 +502,6 @@
     <t>E0322019</t>
   </si>
   <si>
-    <t>E0322030,E0322050</t>
-  </si>
-  <si>
     <t>E0322010</t>
   </si>
   <si>
@@ -988,27 +985,12 @@
     <t>e0222061@sret.edu.in</t>
   </si>
   <si>
-    <t>SRET B.Tech AIDA (2022 - 2026 Batch)</t>
-  </si>
-  <si>
     <t>E0322030</t>
   </si>
   <si>
-    <t>SHREYA S</t>
-  </si>
-  <si>
-    <t>e0322030@sret.edu.in</t>
-  </si>
-  <si>
     <t>E0322050</t>
   </si>
   <si>
-    <t>AFRIN BANU R</t>
-  </si>
-  <si>
-    <t>e0322050@sret.edu.in</t>
-  </si>
-  <si>
     <t>SRET B.Tech Medical Engg (2022 - 2026 Batch)</t>
   </si>
   <si>
@@ -1286,13 +1268,16 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Member 3 Unique ID2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1303,6 +1288,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1371,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1388,6 +1381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,14 +1431,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:G80">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:H80">
+  <tableColumns count="8">
     <tableColumn id="1" name="S.No"/>
     <tableColumn id="2" name="College"/>
     <tableColumn id="3" name="Department "/>
     <tableColumn id="4" name="Team Leader Unique ID"/>
     <tableColumn id="5" name="Member 1 Unique ID"/>
     <tableColumn id="6" name="Member 2 Unique ID"/>
+    <tableColumn id="8" name="Member 3 Unique ID2"/>
     <tableColumn id="7" name="Project Title"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -1669,11 +1664,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1681,13 +1676,13 @@
     <col min="1" max="1" width="5.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="12" width="18.88671875" customWidth="1"/>
+    <col min="5" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="13" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1704,11 +1699,14 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1727,11 +1725,11 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1750,11 +1748,11 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1773,11 +1771,11 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1796,11 +1794,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1819,11 +1817,11 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1842,11 +1840,11 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1865,11 +1863,11 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1888,11 +1886,11 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1911,11 +1909,11 @@
       <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1934,11 +1932,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1957,11 +1955,11 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1980,11 +1978,11 @@
       <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2003,11 +2001,11 @@
       <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2026,11 +2024,11 @@
       <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2049,11 +2047,11 @@
       <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2072,11 +2070,11 @@
       <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="G17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2095,11 +2093,11 @@
       <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="G18" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2118,11 +2116,11 @@
       <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2141,11 +2139,11 @@
       <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2164,11 +2162,11 @@
       <c r="F21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2187,11 +2185,11 @@
       <c r="F22" t="s">
         <v>60</v>
       </c>
-      <c r="G22" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2210,11 +2208,11 @@
       <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="G23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2233,11 +2231,11 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2256,11 +2254,11 @@
       <c r="F25" t="s">
         <v>69</v>
       </c>
-      <c r="G25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2279,11 +2277,11 @@
       <c r="F26" t="s">
         <v>66</v>
       </c>
-      <c r="G26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2302,11 +2300,11 @@
       <c r="F27" t="s">
         <v>73</v>
       </c>
-      <c r="G27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2325,11 +2323,11 @@
       <c r="F28" t="s">
         <v>76</v>
       </c>
-      <c r="G28" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2348,11 +2346,11 @@
       <c r="F29" t="s">
         <v>79</v>
       </c>
-      <c r="G29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2371,11 +2369,11 @@
       <c r="F30" t="s">
         <v>82</v>
       </c>
-      <c r="G30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2394,11 +2392,11 @@
       <c r="F31" t="s">
         <v>86</v>
       </c>
-      <c r="G31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2417,11 +2415,11 @@
       <c r="F32" t="s">
         <v>89</v>
       </c>
-      <c r="G32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2440,11 +2438,11 @@
       <c r="F33" t="s">
         <v>92</v>
       </c>
-      <c r="G33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2463,11 +2461,11 @@
       <c r="F34" t="s">
         <v>95</v>
       </c>
-      <c r="G34" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2486,11 +2484,11 @@
       <c r="F35" t="s">
         <v>98</v>
       </c>
-      <c r="G35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2509,11 +2507,11 @@
       <c r="F36" t="s">
         <v>101</v>
       </c>
-      <c r="G36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2532,11 +2530,11 @@
       <c r="F37" t="s">
         <v>104</v>
       </c>
-      <c r="G37" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2555,11 +2553,11 @@
       <c r="F38" t="s">
         <v>108</v>
       </c>
-      <c r="G38" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2578,11 +2576,11 @@
       <c r="F39" t="s">
         <v>111</v>
       </c>
-      <c r="G39" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2601,11 +2599,11 @@
       <c r="F40" t="s">
         <v>66</v>
       </c>
-      <c r="G40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2624,11 +2622,11 @@
       <c r="F41" t="s">
         <v>116</v>
       </c>
-      <c r="G41" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2647,11 +2645,11 @@
       <c r="F42" t="s">
         <v>119</v>
       </c>
-      <c r="G42" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2670,11 +2668,11 @@
       <c r="F43" t="s">
         <v>122</v>
       </c>
-      <c r="G43" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2693,11 +2691,11 @@
       <c r="F44" t="s">
         <v>125</v>
       </c>
-      <c r="G44" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2716,11 +2714,11 @@
       <c r="F45" t="s">
         <v>128</v>
       </c>
-      <c r="G45" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2739,11 +2737,11 @@
       <c r="F46" t="s">
         <v>131</v>
       </c>
-      <c r="G46" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2762,11 +2760,11 @@
       <c r="F47" t="s">
         <v>66</v>
       </c>
-      <c r="G47" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2785,11 +2783,11 @@
       <c r="F48" t="s">
         <v>134</v>
       </c>
-      <c r="G48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2808,11 +2806,11 @@
       <c r="F49" t="s">
         <v>137</v>
       </c>
-      <c r="G49" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2831,11 +2829,11 @@
       <c r="F50" t="s">
         <v>140</v>
       </c>
-      <c r="G50" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2854,11 +2852,11 @@
       <c r="F51" t="s">
         <v>143</v>
       </c>
-      <c r="G51" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2877,11 +2875,11 @@
       <c r="F52" t="s">
         <v>146</v>
       </c>
-      <c r="G52" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2900,11 +2898,11 @@
       <c r="F53" t="s">
         <v>149</v>
       </c>
-      <c r="G53" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2923,11 +2921,11 @@
       <c r="F54" t="s">
         <v>152</v>
       </c>
-      <c r="G54" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2946,11 +2944,11 @@
       <c r="F55" t="s">
         <v>155</v>
       </c>
-      <c r="G55" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2969,11 +2967,11 @@
       <c r="F56" t="s">
         <v>158</v>
       </c>
-      <c r="G56" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2986,17 +2984,20 @@
       <c r="D57" t="s">
         <v>159</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" t="s">
         <v>160</v>
       </c>
-      <c r="F57" t="s">
-        <v>161</v>
-      </c>
       <c r="G57" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="H57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3007,19 +3008,19 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" t="s">
         <v>162</v>
       </c>
-      <c r="E58" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3030,19 +3031,19 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
         <v>164</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>165</v>
       </c>
-      <c r="F59" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3053,19 +3054,19 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
         <v>167</v>
       </c>
-      <c r="E60" t="s">
-        <v>168</v>
-      </c>
       <c r="F60" t="s">
-        <v>168</v>
-      </c>
-      <c r="G60" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H60" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3076,19 +3077,19 @@
         <v>105</v>
       </c>
       <c r="D61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" t="s">
         <v>169</v>
       </c>
-      <c r="E61" t="s">
-        <v>169</v>
-      </c>
-      <c r="F61" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3099,19 +3100,19 @@
         <v>105</v>
       </c>
       <c r="D62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
         <v>171</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>172</v>
       </c>
-      <c r="F62" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3122,19 +3123,19 @@
         <v>105</v>
       </c>
       <c r="D63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" t="s">
         <v>174</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>175</v>
       </c>
-      <c r="F63" t="s">
-        <v>176</v>
-      </c>
-      <c r="G63" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3145,19 +3146,19 @@
         <v>105</v>
       </c>
       <c r="D64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" t="s">
         <v>177</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>178</v>
       </c>
-      <c r="F64" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3168,19 +3169,19 @@
         <v>83</v>
       </c>
       <c r="D65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" t="s">
         <v>180</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>181</v>
       </c>
-      <c r="F65" t="s">
-        <v>182</v>
-      </c>
-      <c r="G65" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3194,16 +3195,16 @@
         <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
-      </c>
-      <c r="G66" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="H66" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
         <v>66</v>
@@ -3222,11 +3223,11 @@
       <c r="F67" t="s">
         <v>66</v>
       </c>
-      <c r="G67" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3237,19 +3238,19 @@
         <v>105</v>
       </c>
       <c r="D68" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" t="s">
         <v>184</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>185</v>
       </c>
-      <c r="F68" t="s">
-        <v>186</v>
-      </c>
-      <c r="G68" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3260,19 +3261,19 @@
         <v>105</v>
       </c>
       <c r="D69" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" t="s">
         <v>187</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="F69" t="s">
-        <v>189</v>
-      </c>
-      <c r="G69" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3283,19 +3284,19 @@
         <v>105</v>
       </c>
       <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" t="s">
         <v>190</v>
-      </c>
-      <c r="E70" t="s">
-        <v>191</v>
       </c>
       <c r="F70" t="s">
         <v>66</v>
       </c>
-      <c r="G70" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3306,19 +3307,19 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" t="s">
         <v>192</v>
-      </c>
-      <c r="E71" t="s">
-        <v>193</v>
       </c>
       <c r="F71" t="s">
         <v>66</v>
       </c>
-      <c r="G71" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3335,13 +3336,13 @@
         <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3352,19 +3353,19 @@
         <v>46</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F73" t="s">
-        <v>216</v>
-      </c>
-      <c r="G73" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="H73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3375,19 +3376,19 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F74" t="s">
         <v>66</v>
       </c>
-      <c r="G74" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3398,19 +3399,19 @@
         <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
-      </c>
-      <c r="G75" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H75" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3421,19 +3422,19 @@
         <v>83</v>
       </c>
       <c r="D76" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" t="s">
         <v>259</v>
       </c>
-      <c r="E76" t="s">
-        <v>260</v>
-      </c>
       <c r="F76" t="s">
-        <v>318</v>
-      </c>
-      <c r="G76" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="H76" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3444,19 +3445,19 @@
         <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F77" t="s">
-        <v>235</v>
-      </c>
-      <c r="G77" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H77" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3467,19 +3468,19 @@
         <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F78" t="s">
-        <v>420</v>
-      </c>
-      <c r="G78" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="H78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3490,19 +3491,19 @@
         <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F79" t="s">
-        <v>231</v>
-      </c>
-      <c r="G79" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="H79" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3513,16 +3514,16 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
-      </c>
-      <c r="G80" t="s">
-        <v>382</v>
+        <v>414</v>
+      </c>
+      <c r="H80" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3538,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3555,43 +3556,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>198</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>201</v>
-      </c>
-      <c r="H1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>205</v>
       </c>
-      <c r="D2" t="s">
-        <v>206</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -3602,21 +3603,21 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
         <v>207</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>208</v>
       </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3628,21 +3629,21 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
         <v>210</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>211</v>
       </c>
-      <c r="C4" t="s">
-        <v>212</v>
-      </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3654,21 +3655,21 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
         <v>213</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>214</v>
       </c>
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3680,21 +3681,21 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
         <v>217</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>218</v>
       </c>
-      <c r="C6" t="s">
-        <v>219</v>
-      </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3706,21 +3707,21 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
         <v>221</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>222</v>
       </c>
-      <c r="C7" t="s">
-        <v>223</v>
-      </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3732,21 +3733,21 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
         <v>224</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3758,21 +3759,21 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
         <v>232</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>233</v>
       </c>
-      <c r="C9" t="s">
-        <v>234</v>
-      </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3784,21 +3785,21 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
         <v>237</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>238</v>
       </c>
-      <c r="C10" t="s">
-        <v>239</v>
-      </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3810,21 +3811,21 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" t="s">
         <v>240</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>241</v>
       </c>
-      <c r="C11" t="s">
-        <v>242</v>
-      </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3836,21 +3837,21 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
         <v>243</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>244</v>
       </c>
-      <c r="C12" t="s">
-        <v>245</v>
-      </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3862,21 +3863,21 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
         <v>246</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>247</v>
       </c>
-      <c r="C13" t="s">
-        <v>248</v>
-      </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3888,22 +3889,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" t="s">
         <v>251</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>252</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>253</v>
       </c>
-      <c r="D14" t="s">
-        <v>254</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
@@ -3914,21 +3915,21 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
         <v>255</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>256</v>
       </c>
-      <c r="C15" t="s">
-        <v>257</v>
-      </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3940,21 +3941,21 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" t="s">
         <v>261</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>262</v>
       </c>
-      <c r="C16" t="s">
-        <v>263</v>
-      </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3966,21 +3967,21 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
         <v>264</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>265</v>
       </c>
-      <c r="C17" t="s">
-        <v>266</v>
-      </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3992,21 +3993,21 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" t="s">
         <v>268</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>269</v>
       </c>
-      <c r="C18" t="s">
-        <v>270</v>
-      </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4018,21 +4019,21 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" t="s">
         <v>271</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>272</v>
       </c>
-      <c r="C19" t="s">
-        <v>273</v>
-      </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4044,21 +4045,21 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" t="s">
         <v>275</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>276</v>
       </c>
-      <c r="C20" t="s">
-        <v>277</v>
-      </c>
       <c r="D20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4070,21 +4071,21 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
         <v>278</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>279</v>
       </c>
-      <c r="C21" t="s">
-        <v>280</v>
-      </c>
       <c r="D21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4096,21 +4097,21 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" t="s">
         <v>281</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>282</v>
       </c>
-      <c r="C22" t="s">
-        <v>283</v>
-      </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4122,21 +4123,21 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
         <v>284</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>285</v>
       </c>
-      <c r="C23" t="s">
-        <v>286</v>
-      </c>
       <c r="D23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4148,21 +4149,21 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" t="s">
         <v>287</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>288</v>
       </c>
-      <c r="C24" t="s">
-        <v>289</v>
-      </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4174,21 +4175,21 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" t="s">
         <v>290</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>291</v>
       </c>
-      <c r="C25" t="s">
-        <v>292</v>
-      </c>
       <c r="D25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4200,21 +4201,21 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" t="s">
         <v>293</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>294</v>
       </c>
-      <c r="C26" t="s">
-        <v>295</v>
-      </c>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4226,21 +4227,21 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s">
         <v>296</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>297</v>
       </c>
-      <c r="C27" t="s">
-        <v>298</v>
-      </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4252,21 +4253,21 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" t="s">
         <v>300</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>301</v>
       </c>
-      <c r="C28" t="s">
-        <v>302</v>
-      </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4278,21 +4279,21 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" t="s">
         <v>303</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>304</v>
       </c>
-      <c r="C29" t="s">
-        <v>305</v>
-      </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4304,21 +4305,21 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
         <v>306</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>307</v>
       </c>
-      <c r="C30" t="s">
-        <v>308</v>
-      </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4330,21 +4331,21 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31" t="s">
         <v>309</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>310</v>
       </c>
-      <c r="C31" t="s">
-        <v>311</v>
-      </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4356,21 +4357,21 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B32" t="s">
         <v>312</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>313</v>
       </c>
-      <c r="C32" t="s">
-        <v>314</v>
-      </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4382,21 +4383,21 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" t="s">
         <v>315</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>316</v>
       </c>
-      <c r="C33" t="s">
-        <v>317</v>
-      </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4408,21 +4409,21 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" t="s">
         <v>319</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>320</v>
       </c>
-      <c r="C34" t="s">
-        <v>321</v>
-      </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4434,73 +4435,21 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>323</v>
-      </c>
-      <c r="B35" t="s">
-        <v>324</v>
-      </c>
-      <c r="C35" t="s">
-        <v>325</v>
-      </c>
-      <c r="D35" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>326</v>
-      </c>
-      <c r="B36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" t="s">
-        <v>328</v>
-      </c>
-      <c r="D36" t="s">
-        <v>322</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D37" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4512,21 +4461,21 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4538,21 +4487,21 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D39" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -4564,21 +4513,21 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C40" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -4590,21 +4539,21 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D41" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -4616,21 +4565,21 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C42" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D42" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -4642,21 +4591,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C43" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D43" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4668,21 +4617,21 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C44" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D44" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4694,21 +4643,21 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C45" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4720,21 +4669,21 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C46" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4746,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
